--- a/Project/Phase 1/Sprint 3/Sprint 3 BurndownChart.xlsx
+++ b/Project/Phase 1/Sprint 3/Sprint 3 BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dani_\IdeaProjects\jabref\Project\Phase 1\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D76E27B-70CC-400D-9253-6EE2889E2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAD889-9930-40FC-8786-0303C21A7190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Code Smell Long method</t>
   </si>
   <si>
-    <t>Code Smell 3</t>
-  </si>
-  <si>
     <t>Day 6</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Martin packagin metrics</t>
+  </si>
+  <si>
+    <t>Code Smell Large class</t>
   </si>
 </sst>
 </file>
@@ -321,9 +321,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,7 +330,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,13 +347,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +360,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,7 +1696,7 @@
   <dimension ref="B2:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,10 +1730,10 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1765,917 +1765,917 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="9" t="s">
+    </row>
+    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="12">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="12">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="12">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="14">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
-        <v>24</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
-        <v>27</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>39</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
         <v>3</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
-        <v>32</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
-        <v>33</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="22">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
-        <v>34</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="22">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>2</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
-        <v>36</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
-        <v>37</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="22">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
-        <v>38</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <v>39</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
+      <c r="C24" s="22"/>
+      <c r="D24" s="13">
         <f>SUM(D6:D23)</f>
         <v>42</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <f>D24-SUM(E6:E23)</f>
         <v>39</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="13">
         <f t="shared" ref="F24:L24" si="0">E24-SUM(F6:F23)</f>
         <v>36</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="19">
+      <c r="C25" s="22"/>
+      <c r="D25" s="14">
         <f>SUM(D24)</f>
         <v>42</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="14">
         <f>$D$25-($D$25/8*1)</f>
         <v>36.75</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="14">
         <f>$D$25-($D$25/8*2)</f>
         <v>31.5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="14">
         <f>$D$25-($D$25/8*3)</f>
         <v>26.25</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="14">
         <f>$D$25-($D$25/8*4)</f>
         <v>21</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="14">
         <f>$D$25-($D$25/8*5)</f>
         <v>15.75</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="14">
         <f>$D$25-($D$25/8*6)</f>
         <v>10.5</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="14">
         <f>$D$25-($D$25/8*7)</f>
         <v>5.25</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="14">
         <f>$D$25-($D$25/8*8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
